--- a/测试数据.xlsx
+++ b/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="baidu" sheetId="1" r:id="rId1"/>
@@ -172,12 +172,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -460,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,7 +516,7 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>10</v>
       </c>
     </row>
@@ -535,7 +536,7 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>10</v>
       </c>
     </row>
@@ -550,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
